--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Icam4-Itgal.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Icam4-Itgal.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Itgal</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.109744</v>
+        <v>1.412252666666667</v>
       </c>
       <c r="H2">
-        <v>3.329232</v>
+        <v>4.236758</v>
       </c>
       <c r="I2">
-        <v>0.3385593670631844</v>
+        <v>0.409051039104018</v>
       </c>
       <c r="J2">
-        <v>0.3385593670631844</v>
+        <v>0.4090510391040179</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.4641119999999999</v>
+        <v>0.3547066666666667</v>
       </c>
       <c r="N2">
-        <v>1.392336</v>
+        <v>1.06412</v>
       </c>
       <c r="O2">
-        <v>0.0167460263222975</v>
+        <v>0.006934574868045491</v>
       </c>
       <c r="P2">
-        <v>0.0167460263222975</v>
+        <v>0.00693457486804549</v>
       </c>
       <c r="Q2">
-        <v>0.5150455073279999</v>
+        <v>0.5009354358844444</v>
       </c>
       <c r="R2">
-        <v>4.635409565951999</v>
+        <v>4.50841892296</v>
       </c>
       <c r="S2">
-        <v>0.005669524072500467</v>
+        <v>0.002836595055518617</v>
       </c>
       <c r="T2">
-        <v>0.005669524072500468</v>
+        <v>0.002836595055518616</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.109744</v>
+        <v>1.412252666666667</v>
       </c>
       <c r="H3">
-        <v>3.329232</v>
+        <v>4.236758</v>
       </c>
       <c r="I3">
-        <v>0.3385593670631844</v>
+        <v>0.409051039104018</v>
       </c>
       <c r="J3">
-        <v>0.3385593670631844</v>
+        <v>0.4090510391040179</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>1.559931</v>
       </c>
       <c r="O3">
-        <v>0.01876173968565624</v>
+        <v>0.01016563762403213</v>
       </c>
       <c r="P3">
-        <v>0.01876173968565624</v>
+        <v>0.01016563762403213</v>
       </c>
       <c r="Q3">
-        <v>0.5770413558880001</v>
+        <v>0.7343389048553334</v>
       </c>
       <c r="R3">
-        <v>5.193372202992</v>
+        <v>6.609050143698</v>
       </c>
       <c r="S3">
-        <v>0.006351962712980005</v>
+        <v>0.004158264633265244</v>
       </c>
       <c r="T3">
-        <v>0.006351962712980005</v>
+        <v>0.004158264633265242</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.109744</v>
+        <v>1.412252666666667</v>
       </c>
       <c r="H4">
-        <v>3.329232</v>
+        <v>4.236758</v>
       </c>
       <c r="I4">
-        <v>0.3385593670631844</v>
+        <v>0.409051039104018</v>
       </c>
       <c r="J4">
-        <v>0.3385593670631844</v>
+        <v>0.4090510391040179</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.638014666666666</v>
+        <v>26.50170333333334</v>
       </c>
       <c r="N4">
-        <v>7.914044</v>
+        <v>79.50511</v>
       </c>
       <c r="O4">
-        <v>0.09518448789647083</v>
+        <v>0.5181127482682332</v>
       </c>
       <c r="P4">
-        <v>0.09518448789647084</v>
+        <v>0.5181127482682331</v>
       </c>
       <c r="Q4">
-        <v>2.927520948245333</v>
+        <v>37.42710120370889</v>
       </c>
       <c r="R4">
-        <v>26.347688534208</v>
+        <v>336.84391083338</v>
       </c>
       <c r="S4">
-        <v>0.0322255999764625</v>
+        <v>0.2119345580521593</v>
       </c>
       <c r="T4">
-        <v>0.0322255999764625</v>
+        <v>0.2119345580521592</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.109744</v>
+        <v>1.412252666666667</v>
       </c>
       <c r="H5">
-        <v>3.329232</v>
+        <v>4.236758</v>
       </c>
       <c r="I5">
-        <v>0.3385593670631844</v>
+        <v>0.409051039104018</v>
       </c>
       <c r="J5">
-        <v>0.3385593670631844</v>
+        <v>0.4090510391040179</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.047364</v>
+        <v>0.09443866666666667</v>
       </c>
       <c r="N5">
-        <v>0.142092</v>
+        <v>0.283316</v>
       </c>
       <c r="O5">
-        <v>0.001708981432777646</v>
+        <v>0.001846291784117559</v>
       </c>
       <c r="P5">
-        <v>0.001708981432777646</v>
+        <v>0.001846291784117558</v>
       </c>
       <c r="Q5">
-        <v>0.052561914816</v>
+        <v>0.1333712588364444</v>
       </c>
       <c r="R5">
-        <v>0.473057233344</v>
+        <v>1.200341329528</v>
       </c>
       <c r="S5">
-        <v>0.0005785916722039338</v>
+        <v>0.0007552275727824985</v>
       </c>
       <c r="T5">
-        <v>0.0005785916722039339</v>
+        <v>0.0007552275727824983</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,14 +773,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.109744</v>
+        <v>1.412252666666667</v>
       </c>
       <c r="H6">
-        <v>3.329232</v>
+        <v>4.236758</v>
       </c>
       <c r="I6">
-        <v>0.3385593670631844</v>
+        <v>0.409051039104018</v>
       </c>
       <c r="J6">
-        <v>0.3385593670631844</v>
+        <v>0.4090510391040179</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>24.04528633333333</v>
+        <v>23.67963033333333</v>
       </c>
       <c r="N6">
-        <v>72.135859</v>
+        <v>71.03889099999999</v>
       </c>
       <c r="O6">
-        <v>0.8675987646627978</v>
+        <v>0.4629407474555717</v>
       </c>
       <c r="P6">
-        <v>0.8675987646627977</v>
+        <v>0.4629407474555717</v>
       </c>
       <c r="Q6">
-        <v>26.68411223669867</v>
+        <v>33.44162108393088</v>
       </c>
       <c r="R6">
-        <v>240.157010130288</v>
+        <v>300.974589755378</v>
       </c>
       <c r="S6">
-        <v>0.2937336886290375</v>
+        <v>0.1893663937902924</v>
       </c>
       <c r="T6">
-        <v>0.2937336886290375</v>
+        <v>0.1893663937902923</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,40 +856,40 @@
         <v>2.023056</v>
       </c>
       <c r="I7">
-        <v>0.2057304984733349</v>
+        <v>0.1953222626748136</v>
       </c>
       <c r="J7">
-        <v>0.2057304984733349</v>
+        <v>0.1953222626748136</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.4641119999999999</v>
+        <v>0.3547066666666667</v>
       </c>
       <c r="N7">
-        <v>1.392336</v>
+        <v>1.06412</v>
       </c>
       <c r="O7">
-        <v>0.0167460263222975</v>
+        <v>0.006934574868045491</v>
       </c>
       <c r="P7">
-        <v>0.0167460263222975</v>
+        <v>0.00693457486804549</v>
       </c>
       <c r="Q7">
-        <v>0.3129748554239999</v>
+        <v>0.23919715008</v>
       </c>
       <c r="R7">
-        <v>2.816773698816</v>
+        <v>2.15277435072</v>
       </c>
       <c r="S7">
-        <v>0.003445168342733851</v>
+        <v>0.001354476853914543</v>
       </c>
       <c r="T7">
-        <v>0.003445168342733851</v>
+        <v>0.001354476853914542</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>2.023056</v>
       </c>
       <c r="I8">
-        <v>0.2057304984733349</v>
+        <v>0.1953222626748136</v>
       </c>
       <c r="J8">
-        <v>0.2057304984733349</v>
+        <v>0.1953222626748136</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>1.559931</v>
       </c>
       <c r="O8">
-        <v>0.01876173968565624</v>
+        <v>0.01016563762403213</v>
       </c>
       <c r="P8">
-        <v>0.01876173968565624</v>
+        <v>0.01016563762403213</v>
       </c>
       <c r="Q8">
         <v>0.350647529904</v>
@@ -948,10 +948,10 @@
         <v>3.155827769136</v>
       </c>
       <c r="S8">
-        <v>0.003859862057757007</v>
+        <v>0.001985575342258173</v>
       </c>
       <c r="T8">
-        <v>0.003859862057757007</v>
+        <v>0.001985575342258172</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -980,10 +980,10 @@
         <v>2.023056</v>
       </c>
       <c r="I9">
-        <v>0.2057304984733349</v>
+        <v>0.1953222626748136</v>
       </c>
       <c r="J9">
-        <v>0.2057304984733349</v>
+        <v>0.1953222626748136</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.638014666666666</v>
+        <v>26.50170333333334</v>
       </c>
       <c r="N9">
-        <v>7.914044</v>
+        <v>79.50511</v>
       </c>
       <c r="O9">
-        <v>0.09518448789647083</v>
+        <v>0.5181127482682332</v>
       </c>
       <c r="P9">
-        <v>0.09518448789647084</v>
+        <v>0.5181127482682331</v>
       </c>
       <c r="Q9">
-        <v>1.778950466496</v>
+        <v>17.87147664624</v>
       </c>
       <c r="R9">
-        <v>16.010554198464</v>
+        <v>160.84328981616</v>
       </c>
       <c r="S9">
-        <v>0.01958235214187005</v>
+        <v>0.1011989543124174</v>
       </c>
       <c r="T9">
-        <v>0.01958235214187005</v>
+        <v>0.1011989543124174</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,40 +1042,40 @@
         <v>2.023056</v>
       </c>
       <c r="I10">
-        <v>0.2057304984733349</v>
+        <v>0.1953222626748136</v>
       </c>
       <c r="J10">
-        <v>0.2057304984733349</v>
+        <v>0.1953222626748136</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.047364</v>
+        <v>0.09443866666666667</v>
       </c>
       <c r="N10">
-        <v>0.142092</v>
+        <v>0.283316</v>
       </c>
       <c r="O10">
-        <v>0.001708981432777646</v>
+        <v>0.001846291784117559</v>
       </c>
       <c r="P10">
-        <v>0.001708981432777646</v>
+        <v>0.001846291784117558</v>
       </c>
       <c r="Q10">
-        <v>0.031940008128</v>
+        <v>0.063684903744</v>
       </c>
       <c r="R10">
-        <v>0.287460073152</v>
+        <v>0.5731641336960001</v>
       </c>
       <c r="S10">
-        <v>0.0003515896020470191</v>
+        <v>0.0003606218888317601</v>
       </c>
       <c r="T10">
-        <v>0.0003515896020470191</v>
+        <v>0.00036062188883176</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>2.023056</v>
       </c>
       <c r="I11">
-        <v>0.2057304984733349</v>
+        <v>0.1953222626748136</v>
       </c>
       <c r="J11">
-        <v>0.2057304984733349</v>
+        <v>0.1953222626748136</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>24.04528633333333</v>
+        <v>23.67963033333333</v>
       </c>
       <c r="N11">
-        <v>72.135859</v>
+        <v>71.03889099999999</v>
       </c>
       <c r="O11">
-        <v>0.8675987646627978</v>
+        <v>0.4629407474555717</v>
       </c>
       <c r="P11">
-        <v>0.8675987646627977</v>
+        <v>0.4629407474555717</v>
       </c>
       <c r="Q11">
-        <v>16.214986929456</v>
+        <v>15.968406074544</v>
       </c>
       <c r="R11">
-        <v>145.934882365104</v>
+        <v>143.715654670896</v>
       </c>
       <c r="S11">
-        <v>0.1784915263289269</v>
+        <v>0.09042263427739175</v>
       </c>
       <c r="T11">
-        <v>0.1784915263289269</v>
+        <v>0.09042263427739172</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.3512606666666667</v>
+        <v>0.9406819999999999</v>
       </c>
       <c r="H12">
-        <v>1.053782</v>
+        <v>2.822046</v>
       </c>
       <c r="I12">
-        <v>0.1071621824320374</v>
+        <v>0.2724632487150169</v>
       </c>
       <c r="J12">
-        <v>0.1071621824320373</v>
+        <v>0.2724632487150168</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.4641119999999999</v>
+        <v>0.3547066666666667</v>
       </c>
       <c r="N12">
-        <v>1.392336</v>
+        <v>1.06412</v>
       </c>
       <c r="O12">
-        <v>0.0167460263222975</v>
+        <v>0.006934574868045491</v>
       </c>
       <c r="P12">
-        <v>0.0167460263222975</v>
+        <v>0.00693457486804549</v>
       </c>
       <c r="Q12">
-        <v>0.163024290528</v>
+        <v>0.3336661766133333</v>
       </c>
       <c r="R12">
-        <v>1.467218614752</v>
+        <v>3.00299558952</v>
       </c>
       <c r="S12">
-        <v>0.001794540727761744</v>
+        <v>0.001889416797005184</v>
       </c>
       <c r="T12">
-        <v>0.001794540727761744</v>
+        <v>0.001889416797005183</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.3512606666666667</v>
+        <v>0.9406819999999999</v>
       </c>
       <c r="H13">
-        <v>1.053782</v>
+        <v>2.822046</v>
       </c>
       <c r="I13">
-        <v>0.1071621824320374</v>
+        <v>0.2724632487150169</v>
       </c>
       <c r="J13">
-        <v>0.1071621824320373</v>
+        <v>0.2724632487150168</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>1.559931</v>
       </c>
       <c r="O13">
-        <v>0.01876173968565624</v>
+        <v>0.01016563762403213</v>
       </c>
       <c r="P13">
-        <v>0.01876173968565624</v>
+        <v>0.01016563762403213</v>
       </c>
       <c r="Q13">
-        <v>0.1826474676713333</v>
+        <v>0.489133004314</v>
       </c>
       <c r="R13">
-        <v>1.643827209042</v>
+        <v>4.402197038825999</v>
       </c>
       <c r="S13">
-        <v>0.002010548970936689</v>
+        <v>0.0027697626523034</v>
       </c>
       <c r="T13">
-        <v>0.002010548970936689</v>
+        <v>0.002769762652303399</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,10 +1269,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.3512606666666667</v>
+        <v>0.9406819999999999</v>
       </c>
       <c r="H14">
-        <v>1.053782</v>
+        <v>2.822046</v>
       </c>
       <c r="I14">
-        <v>0.1071621824320374</v>
+        <v>0.2724632487150169</v>
       </c>
       <c r="J14">
-        <v>0.1071621824320373</v>
+        <v>0.2724632487150168</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.638014666666666</v>
+        <v>26.50170333333334</v>
       </c>
       <c r="N14">
-        <v>7.914044</v>
+        <v>79.50511</v>
       </c>
       <c r="O14">
-        <v>0.09518448789647083</v>
+        <v>0.5181127482682332</v>
       </c>
       <c r="P14">
-        <v>0.09518448789647084</v>
+        <v>0.5181127482682331</v>
       </c>
       <c r="Q14">
-        <v>0.9266307904897777</v>
+        <v>24.92967529500667</v>
       </c>
       <c r="R14">
-        <v>8.339677114408</v>
+        <v>224.36707765506</v>
       </c>
       <c r="S14">
-        <v>0.01020017745666166</v>
+        <v>0.1411666825938285</v>
       </c>
       <c r="T14">
-        <v>0.01020017745666166</v>
+        <v>0.1411666825938285</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,13 +1331,13 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1346,46 +1346,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.3512606666666667</v>
+        <v>0.9406819999999999</v>
       </c>
       <c r="H15">
-        <v>1.053782</v>
+        <v>2.822046</v>
       </c>
       <c r="I15">
-        <v>0.1071621824320374</v>
+        <v>0.2724632487150169</v>
       </c>
       <c r="J15">
-        <v>0.1071621824320373</v>
+        <v>0.2724632487150168</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.047364</v>
+        <v>0.09443866666666667</v>
       </c>
       <c r="N15">
-        <v>0.142092</v>
+        <v>0.283316</v>
       </c>
       <c r="O15">
-        <v>0.001708981432777646</v>
+        <v>0.001846291784117559</v>
       </c>
       <c r="P15">
-        <v>0.001708981432777646</v>
+        <v>0.001846291784117558</v>
       </c>
       <c r="Q15">
-        <v>0.016637110216</v>
+        <v>0.08883675383733333</v>
       </c>
       <c r="R15">
-        <v>0.149733991944</v>
+        <v>0.799530784536</v>
       </c>
       <c r="S15">
-        <v>0.0001831381800722827</v>
+        <v>0.0005030466575765146</v>
       </c>
       <c r="T15">
-        <v>0.0001831381800722827</v>
+        <v>0.0005030466575765144</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,14 +1393,14 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
         <v>3</v>
       </c>
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.3512606666666667</v>
+        <v>0.9406819999999999</v>
       </c>
       <c r="H16">
-        <v>1.053782</v>
+        <v>2.822046</v>
       </c>
       <c r="I16">
-        <v>0.1071621824320374</v>
+        <v>0.2724632487150169</v>
       </c>
       <c r="J16">
-        <v>0.1071621824320373</v>
+        <v>0.2724632487150168</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>24.04528633333333</v>
+        <v>23.67963033333333</v>
       </c>
       <c r="N16">
-        <v>72.135859</v>
+        <v>71.03889099999999</v>
       </c>
       <c r="O16">
-        <v>0.8675987646627978</v>
+        <v>0.4629407474555717</v>
       </c>
       <c r="P16">
-        <v>0.8675987646627977</v>
+        <v>0.4629407474555717</v>
       </c>
       <c r="Q16">
-        <v>8.446163307637555</v>
+        <v>22.27500202122066</v>
       </c>
       <c r="R16">
-        <v>76.015469768738</v>
+        <v>200.475018190986</v>
       </c>
       <c r="S16">
-        <v>0.092973777096605</v>
+        <v>0.1261343400143033</v>
       </c>
       <c r="T16">
-        <v>0.09297377709660497</v>
+        <v>0.1261343400143032</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1455,61 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>1.142485</v>
+        <v>0.05847033333333334</v>
       </c>
       <c r="H17">
-        <v>3.427455</v>
+        <v>0.175411</v>
       </c>
       <c r="I17">
-        <v>0.3485479520314435</v>
+        <v>0.01693560307675702</v>
       </c>
       <c r="J17">
-        <v>0.3485479520314435</v>
+        <v>0.01693560307675701</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.4641119999999999</v>
+        <v>0.3547066666666667</v>
       </c>
       <c r="N17">
-        <v>1.392336</v>
+        <v>1.06412</v>
       </c>
       <c r="O17">
-        <v>0.0167460263222975</v>
+        <v>0.006934574868045491</v>
       </c>
       <c r="P17">
-        <v>0.0167460263222975</v>
+        <v>0.00693457486804549</v>
       </c>
       <c r="Q17">
-        <v>0.5302409983199999</v>
+        <v>0.02073981703555556</v>
       </c>
       <c r="R17">
-        <v>4.772168984879999</v>
+        <v>0.18665835332</v>
       </c>
       <c r="S17">
-        <v>0.005836793179301439</v>
+        <v>0.0001174412074712731</v>
       </c>
       <c r="T17">
-        <v>0.005836793179301439</v>
+        <v>0.0001174412074712731</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,31 +1517,31 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>1.142485</v>
+        <v>0.05847033333333334</v>
       </c>
       <c r="H18">
-        <v>3.427455</v>
+        <v>0.175411</v>
       </c>
       <c r="I18">
-        <v>0.3485479520314435</v>
+        <v>0.01693560307675702</v>
       </c>
       <c r="J18">
-        <v>0.3485479520314435</v>
+        <v>0.01693560307675701</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>1.559931</v>
       </c>
       <c r="O18">
-        <v>0.01876173968565624</v>
+        <v>0.01016563762403213</v>
       </c>
       <c r="P18">
-        <v>0.01876173968565624</v>
+        <v>0.01016563762403213</v>
       </c>
       <c r="Q18">
-        <v>0.594065922845</v>
+        <v>0.03040322851566667</v>
       </c>
       <c r="R18">
-        <v>5.346593305604999</v>
+        <v>0.273629056641</v>
       </c>
       <c r="S18">
-        <v>0.006539365943982541</v>
+        <v>0.0001721612038227555</v>
       </c>
       <c r="T18">
-        <v>0.00653936594398254</v>
+        <v>0.0001721612038227554</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,31 +1579,31 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>1.142485</v>
+        <v>0.05847033333333334</v>
       </c>
       <c r="H19">
-        <v>3.427455</v>
+        <v>0.175411</v>
       </c>
       <c r="I19">
-        <v>0.3485479520314435</v>
+        <v>0.01693560307675702</v>
       </c>
       <c r="J19">
-        <v>0.3485479520314435</v>
+        <v>0.01693560307675701</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.638014666666666</v>
+        <v>26.50170333333334</v>
       </c>
       <c r="N19">
-        <v>7.914044</v>
+        <v>79.50511</v>
       </c>
       <c r="O19">
-        <v>0.09518448789647083</v>
+        <v>0.5181127482682332</v>
       </c>
       <c r="P19">
-        <v>0.09518448789647084</v>
+        <v>0.5181127482682331</v>
       </c>
       <c r="Q19">
-        <v>3.013892186446666</v>
+        <v>1.549563427801111</v>
       </c>
       <c r="R19">
-        <v>27.12502967802</v>
+        <v>13.94607085021</v>
       </c>
       <c r="S19">
-        <v>0.03317635832147663</v>
+        <v>0.008774551853678524</v>
       </c>
       <c r="T19">
-        <v>0.03317635832147663</v>
+        <v>0.00877455185367852</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,61 +1641,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>1.142485</v>
+        <v>0.05847033333333334</v>
       </c>
       <c r="H20">
-        <v>3.427455</v>
+        <v>0.175411</v>
       </c>
       <c r="I20">
-        <v>0.3485479520314435</v>
+        <v>0.01693560307675702</v>
       </c>
       <c r="J20">
-        <v>0.3485479520314435</v>
+        <v>0.01693560307675701</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.047364</v>
+        <v>0.09443866666666667</v>
       </c>
       <c r="N20">
-        <v>0.142092</v>
+        <v>0.283316</v>
       </c>
       <c r="O20">
-        <v>0.001708981432777646</v>
+        <v>0.001846291784117559</v>
       </c>
       <c r="P20">
-        <v>0.001708981432777646</v>
+        <v>0.001846291784117558</v>
       </c>
       <c r="Q20">
-        <v>0.05411265954</v>
+        <v>0.005521860319555556</v>
       </c>
       <c r="R20">
-        <v>0.48701393586</v>
+        <v>0.049696742876</v>
       </c>
       <c r="S20">
-        <v>0.0005956619784544105</v>
+        <v>3.126806481969253E-05</v>
       </c>
       <c r="T20">
-        <v>0.0005956619784544105</v>
+        <v>3.126806481969252E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.05847033333333334</v>
+      </c>
+      <c r="H21">
+        <v>0.175411</v>
+      </c>
+      <c r="I21">
+        <v>0.01693560307675702</v>
+      </c>
+      <c r="J21">
+        <v>0.01693560307675701</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>23.67963033333333</v>
+      </c>
+      <c r="N21">
+        <v>71.03889099999999</v>
+      </c>
+      <c r="O21">
+        <v>0.4629407474555717</v>
+      </c>
+      <c r="P21">
+        <v>0.4629407474555717</v>
+      </c>
+      <c r="Q21">
+        <v>1.384555878800111</v>
+      </c>
+      <c r="R21">
+        <v>12.461002909201</v>
+      </c>
+      <c r="S21">
+        <v>0.007840180746964773</v>
+      </c>
+      <c r="T21">
+        <v>0.007840180746964772</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.3667526666666667</v>
+      </c>
+      <c r="H22">
+        <v>1.100258</v>
+      </c>
+      <c r="I22">
+        <v>0.1062278464293945</v>
+      </c>
+      <c r="J22">
+        <v>0.1062278464293945</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.3547066666666667</v>
+      </c>
+      <c r="N22">
+        <v>1.06412</v>
+      </c>
+      <c r="O22">
+        <v>0.006934574868045491</v>
+      </c>
+      <c r="P22">
+        <v>0.00693457486804549</v>
+      </c>
+      <c r="Q22">
+        <v>0.1300896158844445</v>
+      </c>
+      <c r="R22">
+        <v>1.17080654296</v>
+      </c>
+      <c r="S22">
+        <v>0.0007366449541358751</v>
+      </c>
+      <c r="T22">
+        <v>0.0007366449541358749</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.3667526666666667</v>
+      </c>
+      <c r="H23">
+        <v>1.100258</v>
+      </c>
+      <c r="I23">
+        <v>0.1062278464293945</v>
+      </c>
+      <c r="J23">
+        <v>0.1062278464293945</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.519977</v>
+      </c>
+      <c r="N23">
+        <v>1.559931</v>
+      </c>
+      <c r="O23">
+        <v>0.01016563762403213</v>
+      </c>
+      <c r="P23">
+        <v>0.01016563762403213</v>
+      </c>
+      <c r="Q23">
+        <v>0.1907029513553334</v>
+      </c>
+      <c r="R23">
+        <v>1.716326562198</v>
+      </c>
+      <c r="S23">
+        <v>0.00107987379238256</v>
+      </c>
+      <c r="T23">
+        <v>0.00107987379238256</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.3667526666666667</v>
+      </c>
+      <c r="H24">
+        <v>1.100258</v>
+      </c>
+      <c r="I24">
+        <v>0.1062278464293945</v>
+      </c>
+      <c r="J24">
+        <v>0.1062278464293945</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>26.50170333333334</v>
+      </c>
+      <c r="N24">
+        <v>79.50511</v>
+      </c>
+      <c r="O24">
+        <v>0.5181127482682332</v>
+      </c>
+      <c r="P24">
+        <v>0.5181127482682331</v>
+      </c>
+      <c r="Q24">
+        <v>9.71957036870889</v>
+      </c>
+      <c r="R24">
+        <v>87.47613331837999</v>
+      </c>
+      <c r="S24">
+        <v>0.05503800145614941</v>
+      </c>
+      <c r="T24">
+        <v>0.05503800145614938</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>1.142485</v>
-      </c>
-      <c r="H21">
-        <v>3.427455</v>
-      </c>
-      <c r="I21">
-        <v>0.3485479520314435</v>
-      </c>
-      <c r="J21">
-        <v>0.3485479520314435</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>24.04528633333333</v>
-      </c>
-      <c r="N21">
-        <v>72.135859</v>
-      </c>
-      <c r="O21">
-        <v>0.8675987646627978</v>
-      </c>
-      <c r="P21">
-        <v>0.8675987646627977</v>
-      </c>
-      <c r="Q21">
-        <v>27.47137895653833</v>
-      </c>
-      <c r="R21">
-        <v>247.242410608845</v>
-      </c>
-      <c r="S21">
-        <v>0.3023997726082285</v>
-      </c>
-      <c r="T21">
-        <v>0.3023997726082284</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.3667526666666667</v>
+      </c>
+      <c r="H25">
+        <v>1.100258</v>
+      </c>
+      <c r="I25">
+        <v>0.1062278464293945</v>
+      </c>
+      <c r="J25">
+        <v>0.1062278464293945</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.09443866666666667</v>
+      </c>
+      <c r="N25">
+        <v>0.283316</v>
+      </c>
+      <c r="O25">
+        <v>0.001846291784117559</v>
+      </c>
+      <c r="P25">
+        <v>0.001846291784117558</v>
+      </c>
+      <c r="Q25">
+        <v>0.03463563283644445</v>
+      </c>
+      <c r="R25">
+        <v>0.311720695528</v>
+      </c>
+      <c r="S25">
+        <v>0.0001961276001070928</v>
+      </c>
+      <c r="T25">
+        <v>0.0001961276001070927</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.3667526666666667</v>
+      </c>
+      <c r="H26">
+        <v>1.100258</v>
+      </c>
+      <c r="I26">
+        <v>0.1062278464293945</v>
+      </c>
+      <c r="J26">
+        <v>0.1062278464293945</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>23.67963033333333</v>
+      </c>
+      <c r="N26">
+        <v>71.03889099999999</v>
+      </c>
+      <c r="O26">
+        <v>0.4629407474555717</v>
+      </c>
+      <c r="P26">
+        <v>0.4629407474555717</v>
+      </c>
+      <c r="Q26">
+        <v>8.684567570430888</v>
+      </c>
+      <c r="R26">
+        <v>78.16110813387799</v>
+      </c>
+      <c r="S26">
+        <v>0.04917719862661958</v>
+      </c>
+      <c r="T26">
+        <v>0.04917719862661956</v>
       </c>
     </row>
   </sheetData>
